--- a/[5] Tester Results/SIGNIFICANT_SEX_SPLIT_REACTION_PARAMETRIC.xlsx
+++ b/[5] Tester Results/SIGNIFICANT_SEX_SPLIT_REACTION_PARAMETRIC.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,14 +463,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-4.840029361671452</v>
+        <v>-8.109468710705281</v>
       </c>
       <c r="D2" t="n">
-        <v>7.697608839509595e-06</v>
+        <v>9.309849748618311e-12</v>
       </c>
     </row>
     <row r="3">
@@ -481,50 +481,50 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2.248310417035032</v>
+        <v>-8.28610145599726</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02845826328409018</v>
+        <v>4.210151482702333e-12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4.030096965190786</v>
+        <v>-8.842640276173753</v>
       </c>
       <c r="D4" t="n">
-        <v>0.000162937693693207</v>
+        <v>3.621026512150495e-14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-3.31627100768838</v>
+        <v>-8.819895966394006</v>
       </c>
       <c r="D5" t="n">
-        <v>0.00127231487606637</v>
+        <v>4.02293194107336e-14</v>
       </c>
     </row>
     <row r="6">
@@ -535,14 +535,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>peakTime</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>-8.102905157475227</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.052809736337506e-11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>May20</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>difference</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>-2.416777016674931</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.01748265609468042</v>
+      <c r="C7" t="n">
+        <v>-8.18735319465109</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7.006022144147106e-12</v>
       </c>
     </row>
   </sheetData>

--- a/[5] Tester Results/SIGNIFICANT_SEX_SPLIT_REACTION_PARAMETRIC.xlsx
+++ b/[5] Tester Results/SIGNIFICANT_SEX_SPLIT_REACTION_PARAMETRIC.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,7 +463,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -476,91 +476,37 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-8.28610145599726</v>
+        <v>-8.842640276173753</v>
       </c>
       <c r="D3" t="n">
-        <v>4.210151482702333e-12</v>
+        <v>3.621026512150495e-14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-8.842640276173753</v>
+        <v>-8.102905157475227</v>
       </c>
       <c r="D4" t="n">
-        <v>3.621026512150495e-14</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>June26</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>difference</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>-8.819895966394006</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.02293194107336e-14</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>peakTime</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>-8.102905157475227</v>
-      </c>
-      <c r="D6" t="n">
         <v>1.052809736337506e-11</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>difference</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>-8.18735319465109</v>
-      </c>
-      <c r="D7" t="n">
-        <v>7.006022144147106e-12</v>
       </c>
     </row>
   </sheetData>
